--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data12.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data12.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.27832786259820647</v>
+        <v>0.278316076342832</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2228755028640643</v>
+        <v>-0.22270108367227665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20825615721500773</v>
+        <v>0.20827644773316573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2289694529053495</v>
+        <v>0.2290751714878349</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
